--- a/Codebook.xlsx
+++ b/Codebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/home/Downloads/AIQuality-Replication-Package-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C158617-F4F9-9C44-BC86-2B257B492A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDC946A-1BCA-8D4D-BD5D-D6F9649ED3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="620" windowWidth="43100" windowHeight="20440" activeTab="1" xr2:uid="{CD8DBCD4-70E6-6841-82EA-79066243C39A}"/>
+    <workbookView xWindow="4240" yWindow="620" windowWidth="57040" windowHeight="25300" activeTab="1" xr2:uid="{CD8DBCD4-70E6-6841-82EA-79066243C39A}"/>
   </bookViews>
   <sheets>
     <sheet name="Closed Coding" sheetId="1" r:id="rId1"/>
@@ -37,13 +37,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="124">
   <si>
     <t>Definition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Correctness</t>
+  </si>
+  <si>
+    <t>Correctness</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -52,6 +55,9 @@
   </si>
   <si>
     <t>Robustness</t>
+  </si>
+  <si>
+    <t>Robustness</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -60,6 +66,9 @@
   </si>
   <si>
     <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -68,6 +77,9 @@
   </si>
   <si>
     <t>Fairness</t>
+  </si>
+  <si>
+    <t>Fairness</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -76,6 +88,9 @@
   </si>
   <si>
     <t>Explainability</t>
+  </si>
+  <si>
+    <t>Explainability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -84,6 +99,9 @@
   </si>
   <si>
     <t>Privacy</t>
+  </si>
+  <si>
+    <t>Privacy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -92,6 +110,9 @@
   </si>
   <si>
     <t>Scalability</t>
+  </si>
+  <si>
+    <t>Scalability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -107,9 +128,6 @@
   </si>
   <si>
     <t>Perception</t>
-  </si>
-  <si>
-    <t>Perception</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -478,6 +496,22 @@
   </si>
   <si>
     <t>For theme related to solution, here it shows the corresponding challenge theme.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Related Quality Attribute Code 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Related Quality Attribute Code 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Related Quality Attribute Code 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Related Quality Attribute Code 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,7 +926,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -903,10 +937,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -914,105 +948,105 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17">
       <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1031,422 +1065,648 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66AD20E8-5907-0F4C-B7B1-2541A111F7BB}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="30.1640625" customWidth="1"/>
-    <col min="2" max="2" width="118" customWidth="1"/>
-    <col min="3" max="3" width="87.33203125" customWidth="1"/>
-    <col min="4" max="4" width="72.5" customWidth="1"/>
+    <col min="2" max="2" width="96.5" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="72.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17">
+      <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" ht="17">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="17">
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="17">
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="17">
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="17">
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17">
       <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17">
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17">
+      <c r="A11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17">
+      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17">
+      <c r="A16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17">
+      <c r="A17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17">
+      <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
         <v>49</v>
       </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="17">
-      <c r="A10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" ht="17">
-      <c r="A11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="17">
-      <c r="A12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="17">
-      <c r="A13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" ht="17">
-      <c r="A14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="17">
-      <c r="A16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" ht="17">
-      <c r="A17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="17">
-      <c r="A18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17">
+    </row>
+    <row r="19" spans="1:8" ht="17">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="17">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17">
       <c r="A23" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17">
       <c r="A25" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17">
       <c r="A26" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17">
       <c r="A27" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17">
       <c r="A28" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17">
       <c r="A29" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17">
       <c r="A30" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17">
       <c r="A31" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17">
       <c r="A32" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="17">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17">
       <c r="A33" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17">
       <c r="A34" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17">
       <c r="A35" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17">
       <c r="A36" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17">
+        <v>10</v>
+      </c>
+      <c r="H36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17">
       <c r="A37" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>10</v>
+      </c>
+      <c r="H37" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1460,12 +1720,18 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8EB1C31B-CB36-F74A-9707-56C56393DBF6}">
           <x14:formula1>
             <xm:f>'Closed Coding'!$B$10:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C17 C18:C37</xm:sqref>
+          <xm:sqref>C2:C37</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0FAC3345-03EB-004F-89C8-C368CB11974F}">
+          <x14:formula1>
+            <xm:f>'Closed Coding'!$B$2:$B$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:G37</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
